--- a/medicine/Enfance/Le_Facteur_de_l'espace/Le_Facteur_de_l'espace.xlsx
+++ b/medicine/Enfance/Le_Facteur_de_l'espace/Le_Facteur_de_l'espace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Facteur_de_l%27espace</t>
+          <t>Le_Facteur_de_l'espace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Facteur de l'espace est une série de bandes dessinées jeunesse[1] de trois tomes écrite et illustrée par le québécois Guillaume Perreault et publiée par La Pastèque. C'est aussi une série animée jeunesse [2] et un mini-jeu[3] (toutes les deux coproduites par La Pastèque et URBANIA) ainsi qu'une série de balado[4] (produit par La Pastèque).
+Le Facteur de l'espace est une série de bandes dessinées jeunesse de trois tomes écrite et illustrée par le québécois Guillaume Perreault et publiée par La Pastèque. C'est aussi une série animée jeunesse  et un mini-jeu (toutes les deux coproduites par La Pastèque et URBANIA) ainsi qu'une série de balado (produit par La Pastèque).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Facteur_de_l%27espace</t>
+          <t>Le_Facteur_de_l'espace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob est un facteur spécial qui adore son boulot. Son travail consiste à distribuer du courrier et des colis dans toute la galaxie. À travers ses itinéraires, Bob fait face à des rencontres inopportunes et des défis surprenants. Ces imprévus, qui bouleversent sa routine, deviennent pour Bob des outils de dépassement, d’ouverture à l’autre et de découvertes enrichissantes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Facteur_de_l%27espace</t>
+          <t>Le_Facteur_de_l'espace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bob - facteur: Routinier, rigoureux et doux. Il a tendance à perdre son sang froid lorsque son quotidien est bousculé. Pour lui, le courrier, c’est sacré. Il adore son travail et il le fait très bien.
 Odile - employée des postes, division mécanique: Optimiste, bricoleuse, aventurière, mais aussi parfois impulsive et distraite. Elle aime la compagnie et est très rigolote. Odile est une copilote hors pair.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Facteur_de_l%27espace</t>
+          <t>Le_Facteur_de_l'espace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,13 +591,49 @@
           <t>Bandes dessinées Le Facteur de l'espace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tome 1 - Le Facteur de l’espace: un pépin au bureau de poste entraîne Bob hors de sa zone de confort. C'est à se demander si Bob arrivera à livrer tout son courrier comme prévu[5].
-Tome 2 - Le Facteur de l’espace - Les pilleurs à moteurs: Bob est forcé de travailler avec Marcelle, une postière en entraînement. Une seule lettre à livrer les poussera à explorer les confins de la galaxie et un mystérieux personnage semble s’intéresser à cette lettre tout aussi mystérieuse[6].
-Tome 3 - Le Facteur de l’espace - La faim du monde: Bob aura bien d’autres préoccupations aujourd’hui que la faim qui le tenaille. Arriver à se faire comprendre partout dans la galaxie est tout un défi[7].
-Prix et distinctions
-Tome 1, Récipiendaire du prix du Salon du livre et de la presse jeunesse de Montreuil en 2016
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tome 1 - Le Facteur de l’espace: un pépin au bureau de poste entraîne Bob hors de sa zone de confort. C'est à se demander si Bob arrivera à livrer tout son courrier comme prévu.
+Tome 2 - Le Facteur de l’espace - Les pilleurs à moteurs: Bob est forcé de travailler avec Marcelle, une postière en entraînement. Une seule lettre à livrer les poussera à explorer les confins de la galaxie et un mystérieux personnage semble s’intéresser à cette lettre tout aussi mystérieuse.
+Tome 3 - Le Facteur de l’espace - La faim du monde: Bob aura bien d’autres préoccupations aujourd’hui que la faim qui le tenaille. Arriver à se faire comprendre partout dans la galaxie est tout un défi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Facteur_de_l'espace</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Facteur_de_l%27espace</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées Le Facteur de l'espace</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tome 1, Récipiendaire du prix du Salon du livre et de la presse jeunesse de Montreuil en 2016
 Tome 1, Récipiendaire du prix Merit du 3x3 Illustration Annual No. 13 en 2016
 Tome 1, Récipiendaire du prix Tamarac Express en 2017
 Tome 1, Finaliste prix Bédélys jeunesse en 2017
@@ -589,31 +641,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Le_Facteur_de_l%27espace</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Facteur_de_l'espace</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Facteur_de_l%27espace</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Série animée Le Facteur de l'espace</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bob est un facteur intergalactique qui livre des colis à bord de son vaisseau spatial. Il aime la routine, les itinéraires planifiés et les choses qu’il connaît. Un jour, son patron lui apprend qu’il devra travailler en équipe avec Odile, une aventurière qui adore les surprises et l’imprévu. À travers les épisodes, ce duo improbable vivra toutes sortes de situations rocambolesques. ICI TOU.TV est la plateforme qui héberge la série de 9 épisodes de 5 minutes qui s’adresse aux enfants de 8-12 ans.
 Épisodes
@@ -625,9 +679,43 @@
 Vieux Bob
 Super Club-Mix-Remix
 Maestro de l’horreur
-Les décideurs
-Fiche technique de la série
-Titre original : Le Facteur de l'espace
+Les décideurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Facteur_de_l'espace</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Facteur_de_l%27espace</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Série animée Le Facteur de l'espace</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fiche technique de la série</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Titre original : Le Facteur de l'espace
 Réalisation : Guillaume Perreault
 Scénario : Charles-Alex Durand
 Script-édition: Sarah Lalonde
@@ -650,71 +738,75 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Le_Facteur_de_l%27espace</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Facteur_de_l'espace</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Facteur_de_l%27espace</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Balado Le Facteur de l'espace</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Une adaptation de la bande dessinée en 6 épisodes de 20 minutes pour les 6-9 ans. Chaque épisode est accompagné d’une fiche pédagogique à utiliser en classe. Le balado est disponible sur différentes plateformes[8].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Une adaptation de la bande dessinée en 6 épisodes de 20 minutes pour les 6-9 ans. Chaque épisode est accompagné d’une fiche pédagogique à utiliser en classe. Le balado est disponible sur différentes plateformes.
 Un matin pas comme les autres
 Solanum
 Brikabrak
 Fibula
 Astroparc B-612
 Longtronc
-Crédits[9]
+Crédits
 Production : La Pastèque, en collaboration avec La puce à l’oreille.
 Voix : Charles Beauchesne.
 Réalisation : Francis Thibault et Alexandre Craig</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Le_Facteur_de_l%27espace</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le_Facteur_de_l'espace</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Facteur_de_l%27espace</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Mini-jeu Le Facteur de l'espace</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Un colis s’est glissé par erreur dans le vaisseau de Gontrand, un collègue de Bob et Odile. La mission: rattraper Gontrand et intercepter la livraison de ce colis! Mais Gontrand, qui est toujours en compétition avec Bob pour le titre d’employé du mois, n’a pas l’intention de se laisser rattraper facilement.
 Dans ce mini-jeu de type plate-forme, dans un point de vue à défilement horizontal, Bob et Odile sont à bord du vaisseau VP1 à la poursuite de Gontrand. En plus d’éviter les collision avec des planètes, des astéroïdes et des débris intergalactiques, le joueur doit cueillir des colis et des propulseurs qui lui donneront de la vitesse afin d’attraper Gontrand.
